--- a/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
@@ -429,42 +429,72 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>D Green</t>
+          <t>BYD SEAL</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>XPENG G9</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>VINFAST VF8</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Honda ZR-V</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>BYD SEAL-U</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Volkswagen ID.7</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>BMW 5 series</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>smart #3</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,469 +424,481 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Car Name</t>
+          <t>Sheet Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BYD SEAL</t>
+          <t>D Green</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>XPENG G9</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>VINFAST VF8</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Honda ZR-V</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>BYD SEAL-U</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Volkswagen ID.7</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>BMW 5 series</t>
+          <t>Default Red</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>smart #3</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>BYD TANG</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Hyundai KONA</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Kia EV9</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>NIO ET5</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>NIO EL7</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Lexus RZ</t>
+          <t>Blue</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D Green</t>
+          <t>BYD SEAL</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.71900826446281</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>42.56198347107438</v>
       </c>
       <c r="E2" t="n">
-        <v>9.130434782608695</v>
+        <v>26.8595041322314</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G2" t="n">
-        <v>4.201680672268908</v>
+        <v>16.94214876033058</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I2" t="n">
-        <v>7.327586206896551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Green</t>
+          <t>XPENG G9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.71900826446281</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>11.50793650793651</v>
       </c>
       <c r="D3" t="n">
-        <v>40.08264462809917</v>
+        <v>29.36507936507937</v>
       </c>
       <c r="E3" t="n">
-        <v>27.82608695652174</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="F3" t="n">
-        <v>22.17741935483871</v>
+        <v>10.31746031746032</v>
       </c>
       <c r="G3" t="n">
-        <v>34.03361344537815</v>
+        <v>24.20634920634921</v>
       </c>
       <c r="H3" t="n">
-        <v>62.82051282051282</v>
+        <v>2.380952380952381</v>
       </c>
       <c r="I3" t="n">
-        <v>36.63793103448276</v>
-      </c>
-      <c r="J3" t="n">
-        <v>21.36752136752137</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34.34782608695652</v>
-      </c>
-      <c r="L3" t="n">
-        <v>38.30645161290323</v>
-      </c>
-      <c r="M3" t="n">
-        <v>19.76744186046512</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27.90697674418605</v>
-      </c>
-      <c r="O3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>VINFAST VF8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.56198347107438</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>29.36507936507937</v>
+        <v>40.08264462809917</v>
       </c>
       <c r="D4" t="n">
         <v>20.24793388429752</v>
       </c>
       <c r="E4" t="n">
-        <v>34.34782608695652</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="F4" t="n">
-        <v>33.46774193548387</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="G4" t="n">
-        <v>43.27731092436975</v>
+        <v>21.48760330578512</v>
       </c>
       <c r="H4" t="n">
-        <v>14.52991452991453</v>
+        <v>4.958677685950413</v>
       </c>
       <c r="I4" t="n">
-        <v>23.70689655172414</v>
-      </c>
-      <c r="J4" t="n">
-        <v>34.18803418803419</v>
-      </c>
-      <c r="K4" t="n">
-        <v>35.21739130434783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>30.24193548387097</v>
-      </c>
-      <c r="M4" t="n">
-        <v>39.53488372093023</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25.1937984496124</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25.65217391304348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Honda ZR-V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.8595041322314</v>
+        <v>9.130434782608695</v>
       </c>
       <c r="C5" t="n">
-        <v>22.22222222222222</v>
+        <v>27.82608695652174</v>
       </c>
       <c r="D5" t="n">
-        <v>9.090909090909092</v>
+        <v>34.34782608695652</v>
       </c>
       <c r="E5" t="n">
         <v>8.260869565217391</v>
       </c>
       <c r="F5" t="n">
-        <v>10.08064516129032</v>
+        <v>6.956521739130435</v>
       </c>
       <c r="G5" t="n">
-        <v>3.361344537815126</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="H5" t="n">
-        <v>5.982905982905983</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="I5" t="n">
-        <v>11.63793103448276</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12.39316239316239</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.73913043478261</v>
-      </c>
-      <c r="L5" t="n">
-        <v>10.48387096774194</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14.34108527131783</v>
-      </c>
-      <c r="N5" t="n">
-        <v>17.82945736434109</v>
-      </c>
-      <c r="O5" t="n">
-        <v>14.78260869565217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>BYD SEAL-U</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.132231404958678</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>10.31746031746032</v>
+        <v>22.17741935483871</v>
       </c>
       <c r="D6" t="n">
-        <v>4.132231404958678</v>
+        <v>33.46774193548387</v>
       </c>
       <c r="E6" t="n">
-        <v>6.956521739130435</v>
+        <v>10.08064516129032</v>
       </c>
       <c r="F6" t="n">
         <v>13.70967741935484</v>
       </c>
       <c r="G6" t="n">
-        <v>2.521008403361345</v>
+        <v>17.33870967741936</v>
       </c>
       <c r="H6" t="n">
-        <v>4.273504273504274</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="I6" t="n">
-        <v>5.172413793103448</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9.82905982905983</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.91304347826087</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.838709677419355</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6.589147286821706</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9.565217391304348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Volkswagen ID.7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.94214876033058</v>
+        <v>4.201680672268908</v>
       </c>
       <c r="C7" t="n">
-        <v>24.20634920634921</v>
+        <v>34.03361344537815</v>
       </c>
       <c r="D7" t="n">
-        <v>21.48760330578512</v>
+        <v>43.27731092436975</v>
       </c>
       <c r="E7" t="n">
-        <v>8.260869565217391</v>
+        <v>3.361344537815126</v>
       </c>
       <c r="F7" t="n">
-        <v>17.33870967741936</v>
+        <v>2.521008403361345</v>
       </c>
       <c r="G7" t="n">
         <v>6.722689075630252</v>
       </c>
       <c r="H7" t="n">
-        <v>8.974358974358974</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="I7" t="n">
-        <v>9.482758620689655</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17.09401709401709</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.565217391304348</v>
-      </c>
-      <c r="L7" t="n">
-        <v>12.09677419354839</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13.56589147286822</v>
-      </c>
-      <c r="N7" t="n">
-        <v>18.9922480620155</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4.782608695652174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Default Red</t>
+          <t>BMW 5 series</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.785123966942149</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.380952380952381</v>
+        <v>62.82051282051282</v>
       </c>
       <c r="D8" t="n">
-        <v>4.958677685950413</v>
+        <v>14.52991452991453</v>
       </c>
       <c r="E8" t="n">
-        <v>5.217391304347826</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="F8" t="n">
-        <v>3.225806451612903</v>
+        <v>4.273504273504274</v>
       </c>
       <c r="G8" t="n">
-        <v>5.882352941176471</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="H8" t="n">
         <v>3.418803418803419</v>
       </c>
       <c r="I8" t="n">
-        <v>6.03448275862069</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.128205128205128</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.217391304347826</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.032258064516129</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6.2015503875969</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.10077519379845</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5.217391304347826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>smart #3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>7.327586206896551</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>36.63793103448276</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>23.70689655172414</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>11.63793103448276</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>9.482758620689655</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.03448275862069</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BYD TANG</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>21.36752136752137</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.18803418803419</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.39316239316239</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.82905982905983</v>
+      </c>
+      <c r="G10" t="n">
+        <v>17.09401709401709</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.128205128205128</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hyundai KONA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34.34782608695652</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.21739130434783</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.73913043478261</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.91304347826087</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.565217391304348</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.217391304347826</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kia EV9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>38.30645161290323</v>
+      </c>
+      <c r="D12" t="n">
+        <v>30.24193548387097</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.48387096774194</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.838709677419355</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.09677419354839</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.032258064516129</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NIO ET5</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.76744186046512</v>
+      </c>
+      <c r="D13" t="n">
+        <v>39.53488372093023</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.34108527131783</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.589147286821706</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.56589147286822</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6.2015503875969</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NIO EL7</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.90697674418605</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.1937984496124</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.82945736434109</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.976744186046512</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18.9922480620155</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.10077519379845</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lexus RZ</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.65217391304348</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.78260869565217</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.565217391304348</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.782608695652174</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.217391304347826</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Sheet Name</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
@@ -420,6 +420,17 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Color-wise data/2023_cars_combined.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
